--- a/data/metro.xlsx
+++ b/data/metro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weichiiiiih/Desktop/data_science/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B6478-A92C-8143-9F4B-D16AD0260BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1F369-6B11-F349-9926-16B262E44DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7460" yWindow="500" windowWidth="21340" windowHeight="16020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15953,7 +15953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E258E827-29C0-BB42-80BC-D67C1BD8A624}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="143" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
